--- a/planilhas/07-2025/2-07-2025.xlsx
+++ b/planilhas/07-2025/2-07-2025.xlsx
@@ -3463,18 +3463,14 @@
         <f>WEEKDAY(B20)</f>
         <v/>
       </c>
-      <c r="D20" s="24" t="n">
-        <v>808</v>
-      </c>
-      <c r="E20" s="24" t="n">
-        <v>1103</v>
-      </c>
-      <c r="F20" s="24" t="n">
-        <v>1307</v>
-      </c>
-      <c r="G20" s="24" t="n">
-        <v>1805</v>
-      </c>
+      <c r="D20" s="131" t="inlineStr">
+        <is>
+          <t>Falta sem Justificativa</t>
+        </is>
+      </c>
+      <c r="E20" s="117" t="n"/>
+      <c r="F20" s="117" t="n"/>
+      <c r="G20" s="118" t="n"/>
       <c r="I20" s="124">
         <f>IF(ISERROR(IF(OR($Z20="",$Z20=0),0,(IF(TEXT($Z20,"[hh]:mm:ss")&lt;TEXT($Y20,"[hh]:mm:ss"),(1-$Y20+$Z20),$Z20-$Y20))+IF(OR($AB20="",$AB20=0),0,(IF(TEXT($AB20,"[hh]:mm:ss")&lt;TEXT($AA20,"[hh]:mm:ss"),(1-$AA20+$AB20),$AB20-$AA20))))),0,IF(OR($Z20="",$Z20=0),0,(IF(TEXT($Z20,"[hh]:mm:ss")&lt;TEXT($Y20,"[hh]:mm:ss"),(1-$Y20+$Z20),$Z20-$Y20))+IF(OR($AB20="",$AB20=0),0,(IF(TEXT($AB20,"[hh]:mm:ss")&lt;TEXT($AA20,"[hh]:mm:ss"),(1-$AA20+$AB20),$AB20-$AA20)))))</f>
         <v/>
@@ -4696,10 +4692,11 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="1" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="AD15"/>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="U4:V4"/>
